--- a/data/Regression Equation.xlsx
+++ b/data/Regression Equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skelavos/Desktop/Training/Data Science/projects/shannonk-ames-housing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221B6CF-5773-6646-959A-227025C1B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5996BB4C-0E44-7F4B-8679-7DD00752D777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="500" windowWidth="40960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>-6637.2636000000002</v>
+        <v>6637.2636000000002</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
